--- a/biology/Zoologie/Adelges/Adelges.xlsx
+++ b/biology/Zoologie/Adelges/Adelges.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Adelges est un genre d'insectes hémiptères de la famille des Adelgidae (pucerons lanigères) responsables de la formation de galles en forme de cônes ou d'ananas sur divers conifères.
 </t>
@@ -511,15 +523,17 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (8 avril 2018)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (8 avril 2018) :
 Adelges abietis (Ratzeburg, 1843) - le chermès vert de l'épicéa - synonyme : Sacchiphantes viridis
 Adelges cooleyi
 Adelges glandulae
 Adelges japonicus
 Adelges kitamiensis
-Adelges lariciatus [2]ou puceron gallicole de l'épinette[3]
+Adelges lariciatus ou puceron gallicole de l'épinette
 Adelges laricis
 Adelges nordmannianae
 Adelges pectinatae
@@ -527,7 +541,7 @@
 Adelges tardus
 Adelges tsugae
 Adelges viridis
-Selon BioLib                    (8 avril 2018)[4] :
+Selon BioLib                    (8 avril 2018) :
 Adelges geniculatus (Ratzeburg, 1843)
 Adelges lapponicus (Cholodkovsky, 1889)
 Adelges laricis Vallot, 1836
